--- a/valid.xlsx
+++ b/valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,2006 @@
         <v>-97.88163757324219</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-118.2442932128906</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-104.477897644043</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-95.15097808837891</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-100.8855590820312</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-120.2629699707031</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-107.5968246459961</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-107.5861434936523</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-90.87857055664062</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-108.8946075439453</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-109.241325378418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-101.7066192626953</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-94.37281036376953</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-111.9020385742188</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-112.2072067260742</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-91.84062194824219</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-108.941780090332</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-103.6874542236328</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-119.2964172363281</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-106.9858322143555</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-115.6045150756836</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-96.77674102783203</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-104.6252899169922</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-102.9288482666016</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-113.6433563232422</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-114.3716812133789</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-95.28726196289062</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-98.58108520507812</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-107.6008987426758</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-101.2541275024414</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-110.5478973388672</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-100.8910827636719</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-109.4876556396484</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-108.9488830566406</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-109.3733901977539</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-115.4256362915039</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-99.80190277099609</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-111.1013488769531</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-111.4834899902344</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-101.7536544799805</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-105.528694152832</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-99.21707153320312</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-102.7420806884766</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-126.4370040893555</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-106.2843933105469</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-109.7289047241211</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-108.7532119750977</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-108.5389251708984</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-103.7531967163086</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-102.0099182128906</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-99.57676696777344</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-109.895133972168</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-109.4391784667969</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-107.5837478637695</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-116.4991989135742</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-103.5436706542969</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-112.2899017333984</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-104.7339859008789</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-110.7619934082031</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-108.3949279785156</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-112.8064651489258</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-108.9054718017578</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-106.7281265258789</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-104.5330963134766</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-104.9876098632812</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-105.195686340332</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-117.8012466430664</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-116.2096786499023</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-106.9363861083984</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-109.0908813476562</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-102.3135757446289</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-113.2599792480469</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-126.669677734375</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-111.1737976074219</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-117.689323425293</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-108.6902160644531</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-107.5335464477539</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-112.7202453613281</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-100.7472381591797</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-114.299934387207</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-108.0840530395508</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-113.1744613647461</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-105.4523239135742</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-103.3374633789062</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-111.7219543457031</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-110.7726364135742</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-111.4408798217773</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-125.9800109863281</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-115.422721862793</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-106.0793762207031</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>-116.4223403930664</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>-107.3997268676758</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>-118.148567199707</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-105.0553131103516</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>-109.4613876342773</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>-113.9826202392578</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-113.1233291625977</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>-117.3251495361328</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>-109.1870727539062</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>-119.11083984375</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-115.1632537841797</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-108.7767181396484</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-108.0664291381836</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-111.8099975585938</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-111.4118194580078</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-111.6170196533203</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-110.2950210571289</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-114.7439727783203</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-115.744384765625</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-114.5693435668945</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-106.680778503418</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-117.6583023071289</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-114.18115234375</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-112.0926208496094</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-119.9632873535156</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-108.4228134155273</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-124.5477905273438</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-117.0959243774414</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-101.0303192138672</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-115.6194152832031</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-109.6882247924805</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-114.528564453125</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-115.6507797241211</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-101.0693054199219</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-112.0071716308594</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-105.4750747680664</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-104.0147094726562</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-104.4179992675781</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-106.9645233154297</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-109.9203109741211</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>-116.8966369628906</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>-112.8446960449219</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>-110.344841003418</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>-115.7015838623047</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>-114.0125274658203</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>-105.2829666137695</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-116.3641967773438</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-119.2408599853516</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>-110.2771606445312</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>-113.1663055419922</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>-108.463493347168</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>-110.2130432128906</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>-116.2494125366211</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>-116.7875366210938</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-111.4558410644531</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>-109.25146484375</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-111.31103515625</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-109.1372528076172</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-115.8557815551758</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-114.0526580810547</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-111.1011199951172</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-123.9734344482422</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-117.623176574707</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-126.0165252685547</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-122.1471099853516</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-113.637336730957</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-119.8466567993164</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-114.7355880737305</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>-105.383056640625</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>-115.7941207885742</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>-123.5112075805664</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>-109.3375778198242</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>-110.4286727905273</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>-115.0239639282227</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>-110.0774688720703</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>-113.0077819824219</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>-99.76199340820312</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>-121.9127502441406</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>-113.3744735717773</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>-123.3120803833008</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>-114.9219207763672</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>-119.3055191040039</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>-110.4025421142578</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>-110.8268966674805</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>-109.04638671875</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>-115.4432678222656</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>-119.5656051635742</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>-116.4782104492188</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>-114.0278244018555</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>-125.7217178344727</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>-114.9522476196289</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>-119.9247665405273</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>-112.3432006835938</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>-112.3134078979492</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>-116.1928482055664</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>-120.5388870239258</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>-107.9829788208008</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>-130.2458801269531</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>-113.2848892211914</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>-111.8980255126953</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>-118.9528350830078</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>-113.1957626342773</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>-124.1429977416992</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>-110.3798065185547</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>-105.0997924804688</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>-103.0099182128906</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>-115.572624206543</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>-109.4575653076172</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>-117.5354461669922</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>-109.4223251342773</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>-120.2980270385742</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>-125.6792221069336</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>-126.7633972167969</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>-119.1186447143555</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>-114.6656723022461</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>-110.2381439208984</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>-112.5711135864258</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>-112.963249206543</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>-121.1735382080078</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>-110.8069534301758</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>-109.5476531982422</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>-114.8830184936523</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>-117.8276672363281</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>-118.35009765625</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>-112.5290222167969</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>-113.8888244628906</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>-118.8662719726562</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>-119.1117172241211</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>-118.0992736816406</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>-127.5920486450195</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>-115.57177734375</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>-104.0569305419922</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>-118.5336151123047</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>-117.3791580200195</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>-108.6383361816406</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>-110.4801483154297</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>-114.940055847168</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>-121.1441345214844</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>-109.5021057128906</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>-118.91552734375</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>-124.4834060668945</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>-124.037712097168</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>-127.4644165039062</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>-116.4881439208984</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>-119.750129699707</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>-112.9458694458008</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>-108.717643737793</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>-121.9858169555664</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>-109.9231643676758</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>-118.5078353881836</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>-119.1524505615234</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>-113.5947494506836</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>-119.1810531616211</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>-116.0995864868164</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>-110.6690826416016</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>-125.0260925292969</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>-126.3371658325195</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>-112.9574890136719</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>-107.3372268676758</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>-110.9384155273438</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>-117.3033752441406</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>-124.0426330566406</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>-121.4326934814453</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>-118.6439056396484</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>-117.7787322998047</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>-115.6606140136719</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>-116.6641006469727</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>-113.0045471191406</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>-121.411506652832</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>-124.9770889282227</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>-116.7575378417969</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>-127.7802734375</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>-100.8272857666016</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>-107.316650390625</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>-117.8879470825195</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>-115.9082794189453</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>-119.910041809082</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>-110.5844116210938</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>-113.4409484863281</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>-121.2867202758789</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>-107.587532043457</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>-110.7302551269531</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>-114.3639678955078</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>-118.585334777832</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>-128.9429626464844</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>-116.66357421875</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>-121.102653503418</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>-114.072151184082</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>-125.734375</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>-125.1217956542969</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>-109.4859466552734</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>-114.9324188232422</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>-120.3469924926758</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>-115.7222442626953</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>-120.3374252319336</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>-121.6928939819336</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>-113.7868194580078</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>-117.4966201782227</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>-122.4528503417969</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>-122.5062026977539</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>-125.7276153564453</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>-122.4883575439453</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>-112.5226593017578</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>-111.4548721313477</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>-128.3673400878906</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>-113.7456436157227</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>-111.7925567626953</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>-124.0587921142578</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>-117.5807723999023</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>-121.8038024902344</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>-126.4547882080078</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>-116.267951965332</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>-122.7162399291992</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>-112.0250549316406</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>-123.0913696289062</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>-116.8603744506836</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>-122.314582824707</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>-119.8633804321289</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>-112.6813049316406</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>-116.8809204101562</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>-118.8036346435547</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>-123.5958480834961</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>-112.5253524780273</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>-117.9823837280273</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>-132.3121795654297</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>-108.789192199707</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>-118.2865447998047</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>-106.0918197631836</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>-110.899055480957</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>-114.9827575683594</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>-118.4634399414062</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>-115.2795486450195</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>-115.2495498657227</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>-118.4753341674805</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>-110.3298263549805</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>-128.9284820556641</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>-123.2442169189453</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>-123.7321014404297</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>-120.929573059082</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>-130.1163330078125</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>-124.5551834106445</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>-115.698371887207</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>-116.5351791381836</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>-116.6381225585938</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>-129.1360778808594</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>-110.906120300293</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>-125.4821548461914</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>-109.0730895996094</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>-121.0455474853516</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>-111.873046875</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>-107.4459991455078</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>-122.4353332519531</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>-120.7537307739258</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>-122.2820892333984</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>-130.4579467773438</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>-117.4348526000977</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>-113.6829681396484</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>-113.8159561157227</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>-120.7118759155273</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>-108.0388488769531</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>-122.1676940917969</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>-117.4053497314453</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>-123.6942291259766</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>-118.4479675292969</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>-123.7966766357422</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>-118.4536514282227</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>-124.1232833862305</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>-117.445182800293</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>-123.3590545654297</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>-116.9284744262695</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>-117.7548599243164</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>-119.9087371826172</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>-112.8268127441406</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>-117.8671569824219</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>-123.2941970825195</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>-117.7414321899414</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>-126.228141784668</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>-109.2962188720703</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>-112.6436538696289</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>-112.6924438476562</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>-124.4007263183594</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>-122.3652114868164</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>-126.7905883789062</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>-127.7807998657227</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>-119.1022033691406</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>-128.8932800292969</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>-118.02734375</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>-123.7500228881836</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>-121.8171691894531</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>-111.3848037719727</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>-133.8392181396484</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>-118.1051177978516</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>-115.8979949951172</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>-119.8090362548828</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>-117.518669128418</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>-119.7770004272461</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>-114.1930084228516</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>-114.6295928955078</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>-134.0177917480469</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>-112.0457992553711</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>-118.2957992553711</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>-131.3291168212891</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>-126.6703109741211</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>-116.5782699584961</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>-117.5564651489258</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>-119.5273895263672</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>-121.3261947631836</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>-117.1923828125</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>-115.0657806396484</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>-126.9981079101562</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>-120.9470672607422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/valid.xlsx
+++ b/valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,4857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-101.8887481689453</v>
+        <v>-2.213663339614868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.874093532562256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.785378694534302</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-1.686792135238647</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1.652563810348511</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-1.63881778717041</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.664685368537903</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-1.567310810089111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-1.614388704299927</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-1.538670659065247</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-1.434907078742981</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-1.524493098258972</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-1.590767860412598</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-1.561668395996094</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-1.512903451919556</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-1.487356901168823</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-1.476718902587891</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-1.395221590995789</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-1.364933371543884</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-1.57512354850769</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.579322457313538</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.351995706558228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.46074640750885</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.430264234542847</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.329211473464966</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.29605758190155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-1.325164079666138</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.344936013221741</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-1.234223484992981</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.173521161079407</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-1.140327334403992</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.127927660942078</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-1.208425164222717</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.164427280426025</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.270755410194397</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.226130485534668</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.173908948898315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.155994057655334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-1.245949745178223</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-1.117334246635437</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.283128023147583</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.205564260482788</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-1.282823801040649</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-1.25573992729187</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-1.289022207260132</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-1.284088611602783</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-1.225829839706421</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-1.282001972198486</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-1.229203939437866</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-0.8500829339027405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-0.9442036151885986</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-1.041477918624878</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-1.150783181190491</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-1.242689609527588</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-1.117984652519226</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-1.171507716178894</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-1.136891961097717</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-1.133091449737549</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-1.112273812294006</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-1.19926118850708</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-1.204367637634277</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-1.327986001968384</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-1.133626699447632</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-1.188387632369995</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-1.346992492675781</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-1.192876577377319</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-1.110271811485291</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-1.263900756835938</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-1.190467596054077</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-1.134626626968384</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-1.151640653610229</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-1.157974720001221</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-1.197747349739075</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-1.287593722343445</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-1.280444979667664</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-1.268032670021057</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-1.328451991081238</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-1.27280855178833</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-1.252995252609253</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-1.237315893173218</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-1.190078377723694</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-1.187540650367737</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-1.124350309371948</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-1.199359893798828</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-1.312910556793213</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-1.287470102310181</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-1.330918312072754</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-1.143419981002808</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-1.20011305809021</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-1.211851239204407</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-1.182300090789795</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-1.261133193969727</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-1.140767574310303</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-1.086397528648376</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-1.167088985443115</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-1.221449732780457</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-1.195608258247375</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-1.091390371322632</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-1.110825181007385</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-1.097597599029541</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-1.086566209793091</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-1.029521465301514</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-1.107959389686584</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-0.9613810777664185</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-1.074472904205322</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-1.203577160835266</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-1.134894251823425</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-1.042956113815308</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-1.214099526405334</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-1.111059427261353</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-0.9913166761398315</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-1.075708508491516</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-0.9893155097961426</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-1.150783777236938</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-1.231410026550293</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-1.085368990898132</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-1.135168552398682</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-1.177848100662231</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-1.130975842475891</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-1.117908954620361</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-1.182663559913635</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-1.029063820838928</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-1.03669261932373</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-0.9663287997245789</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-0.9576002359390259</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-0.9204117059707642</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-0.821780264377594</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-0.8038795590400696</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-0.8372964262962341</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-0.8229661583900452</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>-0.7541109323501587</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>-0.7525506615638733</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>-0.7602922916412354</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-0.7243549823760986</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>-0.7782953381538391</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>-0.6944097876548767</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-0.7345579266548157</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>-0.7984728813171387</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>-0.7518861293792725</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>-0.820324182510376</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-0.7116427421569824</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-0.8695934414863586</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-0.7489965558052063</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-0.8177506923675537</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-0.6918113827705383</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-0.6453160047531128</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-0.6304182410240173</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-0.5688678622245789</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-0.734249472618103</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-0.6114208102226257</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-0.6446228623390198</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-0.788992166519165</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-0.7110517621040344</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-0.7491694688796997</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-0.6586921811103821</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-0.6577016711235046</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-0.623128354549408</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-0.6538486480712891</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-0.6990821361541748</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-0.6735486388206482</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-0.6794365048408508</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-0.6981616020202637</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-0.7624426484107971</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-0.7612525224685669</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-0.7362016439437866</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-0.789858877658844</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-0.7770443558692932</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-0.7640228271484375</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-0.8231407999992371</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-0.7173650860786438</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>-0.6446397304534912</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>-0.6643508076667786</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>-0.7586370706558228</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>-0.7618317604064941</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>-0.7319257855415344</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>-0.6959760189056396</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-0.6807705760002136</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-0.7954450845718384</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>-0.7803410291671753</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>-0.6841261386871338</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>-0.671398937702179</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>-0.7622949481010437</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>-0.7052608728408813</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>-0.7347139120101929</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-0.7610728740692139</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>-0.6905761957168579</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-0.8318138122558594</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-0.6383635997772217</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-0.7425605654716492</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-0.7590045928955078</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-0.7163788080215454</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-0.8280259966850281</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-0.798804759979248</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-0.817868173122406</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-0.8249485492706299</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-0.930309534072876</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-0.9870877265930176</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-1.043427109718323</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>-0.9579542279243469</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>-0.8813462853431702</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>-0.7988958954811096</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>-0.8271229267120361</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>-0.734526515007019</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>-0.831230103969574</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>-0.7728554010391235</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>-0.8791648745536804</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>-0.841097891330719</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>-0.8509031534194946</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>-0.8364982604980469</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>-0.8357923030853271</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>-0.8065373301506042</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>-0.8412520885467529</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>-0.9739616513252258</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>-0.9896200299263</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>-0.952951967716217</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>-0.9308799505233765</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>-0.9056816101074219</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>-0.918497622013092</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>-0.900036633014679</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>-0.859710693359375</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>-0.8929285407066345</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>-0.8611177802085876</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>-0.9114639759063721</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>-0.8573404550552368</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>-0.9000845551490784</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>-0.9382838606834412</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>-1.002469301223755</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>-1.108526468276978</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>-1.092090010643005</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>-1.044583082199097</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>-1.074119567871094</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>-1.082383394241333</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>-1.104241013526917</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>-1.006394147872925</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>-0.9555497765541077</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>-1.002467513084412</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>-1.015987038612366</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>-1.036752223968506</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>-1.047144055366516</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>-0.8800808787345886</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>-0.9541658163070679</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>-0.9306589365005493</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>-0.9888275265693665</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>-0.9676826596260071</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>-1.048006296157837</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>-1.063217043876648</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>-1.085602760314941</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>-1.093861818313599</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>-1.068634510040283</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>-1.107086300849915</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>-1.106370568275452</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>-1.234310030937195</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>-1.179060935974121</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>-1.072621941566467</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>-1.059656620025635</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>-1.020811557769775</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>-1.028045058250427</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>-1.10595428943634</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>-1.100458979606628</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>-1.159498691558838</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>-1.183090090751648</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>-1.158477067947388</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>-1.215368628501892</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>-1.130800485610962</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>-1.193187117576599</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>-1.110370755195618</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>-1.124778270721436</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>-1.072094082832336</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>-1.046099066734314</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>-1.179584145545959</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>-1.240572929382324</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>-1.367234468460083</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>-1.409628748893738</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>-1.313625812530518</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>-1.198643445968628</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>-1.317384004592896</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>-1.205045819282532</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>-1.283823847770691</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>-1.021243333816528</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>-1.243137955665588</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>-1.126712203025818</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>-1.172816276550293</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>-1.314573407173157</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>-1.221967577934265</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>-1.02805483341217</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>-1.021527647972107</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>-1.197752952575684</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>-1.155831336975098</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>-1.281410336494446</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>-1.220391869544983</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>-1.103362441062927</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>-1.158258080482483</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>-1.262904167175293</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>-1.303198099136353</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>-1.345344185829163</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>-1.38322901725769</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>-1.236368775367737</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>-1.31720769405365</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>-1.304209232330322</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>-1.437879323959351</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>-1.320991635322571</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>-1.240740299224854</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>-1.373469233512878</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>-1.332054495811462</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>-1.349578261375427</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>-1.173488974571228</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>-1.065011262893677</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>-1.214766502380371</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>-1.240431547164917</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>-1.114539504051208</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>-1.061495542526245</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>-0.960522472858429</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>-0.8126776218414307</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>-0.9559162855148315</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>-0.9144671559333801</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>-0.8734549880027771</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>-0.6670987606048584</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>-0.7349900603294373</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>-0.7504623532295227</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>-0.8286299109458923</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>-0.8804280161857605</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>-0.8969026207923889</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>-0.823805570602417</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>-0.8072947859764099</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>-0.7575357556343079</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>-0.8726776242256165</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>-0.8468648791313171</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>-0.8646555542945862</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>-0.9835609197616577</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>-0.915000319480896</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>-0.877775251865387</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>-0.8780536651611328</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>-0.8500173687934875</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>-0.7655222415924072</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>-0.8109015822410583</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>-0.8223727345466614</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>-1.021993160247803</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>-1.064165472984314</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>-1.043675422668457</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>-0.9876806735992432</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>-1.195922255516052</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>-1.306001901626587</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>-1.170578002929688</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>-1.359660625457764</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>-1.439927339553833</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>-1.432084083557129</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>-1.157065153121948</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>-1.243126511573792</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>-1.347170114517212</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>-1.318310856819153</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>-1.364968299865723</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>-1.38990581035614</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>-1.60052216053009</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>-1.447953343391418</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>-1.467637658119202</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>-1.403919816017151</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>-1.321382761001587</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>-1.262058138847351</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>-1.25250768661499</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>-1.246437788009644</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>-1.129917144775391</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>-1.109717607498169</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>-0.9876430034637451</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>-1.061573505401611</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>-0.9886935353279114</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>-0.9350636005401611</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>-1.117907524108887</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>-1.074615120887756</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>-1.058043241500854</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>-1.156187176704407</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>-1.139881491661072</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>-0.9124971628189087</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>-1.024810910224915</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>-1.035269856452942</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>-0.9458450078964233</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>-0.9606772065162659</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>-0.9014602899551392</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>-0.8730006217956543</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>-0.9009614586830139</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>-0.9843659400939941</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>-0.8426189422607422</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>-0.9190831780433655</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>-0.9358379244804382</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>-0.851979672908783</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>-0.9413459300994873</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>-0.782478928565979</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>-0.6996114253997803</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>-0.6716660857200623</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>-0.7201175093650818</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>-0.8286967277526855</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>-0.8357824683189392</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>-0.7618151903152466</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>-0.8120689392089844</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>-0.8099353313446045</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>-0.8311188220977783</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>-0.7621118426322937</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>-0.7529749274253845</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>-0.8806145191192627</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>-0.8556451201438904</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>-1.000818729400635</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>-1.071566104888916</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>-0.9621745347976685</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>-0.9946894645690918</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>-1.100484490394592</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>-1.001241207122803</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>-0.9948124885559082</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>-1.094287395477295</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>-1.201789140701294</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>-1.124171257019043</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>-1.094673633575439</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>-1.103753089904785</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>-1.167963147163391</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>-1.147469758987427</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>-1.1382896900177</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>-1.088083982467651</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>-1.04842209815979</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>-1.019155979156494</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>-1.145930171012878</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>-1.197017669677734</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>-1.210529685020447</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>-1.30235767364502</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>-1.2271968126297</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>-1.117822766304016</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>-1.050365924835205</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>-1.084744453430176</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>-1.182011604309082</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>-1.18114972114563</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>-1.264538526535034</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>-1.26695704460144</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>-1.335650205612183</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>-1.363969087600708</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>-1.441598176956177</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>-1.37265682220459</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>-1.479621529579163</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>-1.332590341567993</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>-1.460781216621399</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>-1.58138120174408</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>-1.35948634147644</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>-1.492228031158447</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>-1.36576509475708</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>-1.350503206253052</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>-1.37991189956665</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>-1.448503375053406</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>-1.152311444282532</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>-1.299612998962402</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>-1.232961297035217</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>-1.15027129650116</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>-1.092448234558105</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>-1.156807661056519</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>-1.051169276237488</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>-1.104376316070557</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>-1.253802895545959</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>-1.234317421913147</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>-1.332221031188965</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>-1.440371513366699</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>-1.453333020210266</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>-1.459402799606323</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>-1.522875189781189</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>-1.532238721847534</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>-1.734875440597534</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>-1.759809851646423</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>-1.907614707946777</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>-1.771215558052063</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>-1.465616464614868</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>-1.477828502655029</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>-1.533831834793091</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>-1.338263869285583</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>-1.503005027770996</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>-1.61035430431366</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>-1.496995806694031</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>-1.448363065719604</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>-1.201667308807373</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>-1.2385573387146</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>-1.18153703212738</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>-1.099858164787292</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>-1.001965522766113</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>-0.9761856198310852</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>-0.9508153796195984</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>-0.808888852596283</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>-0.7906363010406494</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>-0.7254006862640381</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>-0.886524498462677</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>-0.8333157300949097</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>-0.8934698700904846</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>-1.002446889877319</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>-1.059041142463684</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>-0.8177280426025391</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>-0.8077221512794495</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>-0.9024890065193176</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>-0.7892603874206543</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>-0.8550716638565063</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>-0.8293350338935852</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>-0.9379185438156128</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>-0.9186643958091736</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>-0.825808584690094</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>-0.9022630453109741</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>-0.9447470903396606</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>-0.7834277153015137</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>-0.8749850988388062</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>-0.7650843858718872</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>-0.8453758955001831</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>-0.8907363414764404</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>-1.03881561756134</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>-0.8830521106719971</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>-1.043962001800537</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>-0.8647507429122925</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>-0.9777840971946716</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>-0.8915936350822449</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>-0.9287616014480591</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>-0.9211923480033875</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>-0.9781622290611267</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>-1.021314144134521</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>-1.192504525184631</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>-1.004921436309814</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>-1.113881587982178</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>-1.34648859500885</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>-1.47830593585968</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>-1.343620896339417</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>-1.353758215904236</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>-1.545735478401184</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>-1.707170963287354</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>-1.399266839027405</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>-1.365678429603577</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>-1.684099078178406</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>-1.359895467758179</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>-1.434310436248779</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>-1.653492450714111</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>-1.649173855781555</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>-1.663531541824341</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>-1.508096933364868</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>-1.65750777721405</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>-1.871301531791687</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>-1.604698896408081</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>-1.397002220153809</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>-1.349287152290344</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>-1.446260333061218</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>-1.412730574607849</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>-1.564075946807861</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>-1.692298889160156</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>-1.659605383872986</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>-1.655035138130188</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>-1.82686710357666</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>-1.740047097206116</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>-1.855639457702637</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>-2.074467658996582</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>-2.03240180015564</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>-2.202600717544556</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>-2.216668128967285</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>-2.462554216384888</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>-1.945260047912598</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>-2.939397811889648</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>-3.362924814224243</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>-3.984943151473999</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>-3.216136455535889</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>-2.964668035507202</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>-3.035157680511475</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>-2.756287336349487</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>-3.856959819793701</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>-3.5114586353302</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>-3.566057682037354</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>-3.289515495300293</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>-3.270627975463867</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>-3.006132841110229</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>-3.472871780395508</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>-3.683902025222778</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>-4.314388275146484</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>-4.499138355255127</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>-4.17114782333374</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>-3.911007165908813</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>-4.177343368530273</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>-4.107072353363037</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>-5.162546157836914</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>-5.438014030456543</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>-6.176702976226807</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>-6.592292308807373</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>-6.147821426391602</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>-5.837496280670166</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>-6.337237358093262</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>-6.262747764587402</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>-6.732359409332275</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>-6.093896389007568</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>-5.648724555969238</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>-6.479908466339111</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>-5.766684055328369</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>-5.550199508666992</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>-6.638788223266602</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>-7.251045703887939</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>-7.002672672271729</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>-6.753387451171875</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>-6.346799850463867</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>-5.650161266326904</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>-5.157812118530273</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>-5.58909797668457</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>-6.545486450195312</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>-7.077133655548096</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>-7.100161075592041</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>-7.063582897186279</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>-7.702067375183105</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>-7.502150058746338</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>-7.482689380645752</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>-7.545601844787598</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>-7.984470844268799</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>-8.922287940979004</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>-8.028494834899902</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>-8.589076995849609</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>-8.306643486022949</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>-8.271437644958496</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>-8.863581657409668</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>-8.883161544799805</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>-8.251664161682129</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>-7.754704475402832</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>-7.757428646087646</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>-8.549246788024902</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>-10.22447109222412</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>-9.856348991394043</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>-9.851506233215332</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>-8.396096229553223</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>-8.81429386138916</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>-7.967470169067383</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>-8.02009391784668</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>-8.102443695068359</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>-8.091407775878906</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>-7.07127571105957</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>-7.840371131896973</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>-7.974200248718262</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>-8.451597213745117</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>-8.427947998046875</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>-8.692920684814453</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>-9.502821922302246</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>-10.25336456298828</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>-9.716883659362793</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>-7.993537425994873</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>-8.439579010009766</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>-8.063841819763184</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>-8.771328926086426</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>-8.576866149902344</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>-8.914673805236816</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>-8.250039100646973</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>-8.556107521057129</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>-8.009113311767578</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>-8.948879241943359</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>-8.988103866577148</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>-8.912703514099121</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>-9.24416446685791</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>-8.809719085693359</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>-8.978924751281738</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>-8.264620780944824</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>-7.192412853240967</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>-6.954431056976318</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>-5.786474227905273</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>-7.522054672241211</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>-7.296426773071289</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>-7.470616340637207</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>-7.85518741607666</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>-8.040210723876953</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>-7.918662071228027</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>-8.298389434814453</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>-7.194843292236328</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>-6.635534763336182</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>-5.898520469665527</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>-5.989364147186279</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>-6.980948448181152</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>-6.943936824798584</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>-6.906710147857666</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>-7.961416244506836</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>-9.184391021728516</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>-8.560681343078613</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>-8.181343078613281</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>-8.984145164489746</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>-9.512881278991699</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>-8.893291473388672</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>-10.05026817321777</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>-10.6773624420166</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>-9.220324516296387</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>-8.839507102966309</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>-8.978354454040527</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>-7.617649078369141</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>-7.617599487304688</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>-7.023012638092041</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>-8.425522804260254</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>-8.258688926696777</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>-9.163294792175293</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>-8.619647979736328</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>-8.966733932495117</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>-7.924806118011475</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>-7.939840793609619</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>-8.813089370727539</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>-8.100741386413574</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>-9.258234024047852</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>-7.869492053985596</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>-7.691688060760498</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>-8.102116584777832</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>-8.842774391174316</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>-8.871377944946289</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>-8.574573516845703</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>-8.998730659484863</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>-9.211274147033691</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>-10.2976770401001</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>-9.855975151062012</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>-8.84136962890625</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>-8.504666328430176</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>-9.30280590057373</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>-9.916241645812988</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>-10.60014915466309</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>-11.05637741088867</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>-11.41507053375244</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>-9.979334831237793</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>-9.442278861999512</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>-8.979308128356934</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>-8.754059791564941</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>-8.582825660705566</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>-9.043697357177734</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>-9.061967849731445</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>-8.650561332702637</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>-9.297924995422363</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>-9.230495452880859</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>-8.323524475097656</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>-8.256030082702637</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>-7.872579574584961</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>-8.643773078918457</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>-7.707890033721924</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>-8.502625465393066</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>-9.18718433380127</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>-8.549515724182129</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>-8.286628723144531</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>-7.511766910552979</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>-8.731928825378418</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>-7.938831806182861</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>-8.213423728942871</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>-9.242541313171387</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>-9.844232559204102</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>-9.728263854980469</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>-10.18118190765381</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>-9.895947456359863</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>-10.43581581115723</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>-9.905329704284668</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>-9.725268363952637</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>-8.15831184387207</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>-8.340030670166016</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>-8.278279304504395</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>-7.854290008544922</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>-8.848437309265137</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>-8.226153373718262</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>-7.740498542785645</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>-7.423477649688721</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>-7.4075026512146</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>-7.982047557830811</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>-7.352630615234375</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>-7.3217453956604</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>-8.089707374572754</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>-7.956093311309814</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>-8.709835052490234</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>-7.780739784240723</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>-7.850517749786377</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>-7.840421199798584</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>-7.047468185424805</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>-7.9430832862854</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>-7.916021823883057</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>-7.34341287612915</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>-8.195531845092773</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>-7.365520477294922</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>-7.074228286743164</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>-6.392962455749512</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>-7.076915264129639</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>-7.345510482788086</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>-7.435873031616211</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>-7.744592189788818</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>-7.356544017791748</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>-7.462342739105225</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>-6.984066009521484</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>-7.758913516998291</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>-7.396778106689453</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>-6.944036960601807</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>-7.379383087158203</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>-7.17474365234375</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>-7.1489577293396</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>-6.716461658477783</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>-6.91758918762207</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>-6.460696220397949</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>-7.043003082275391</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>-6.46078634262085</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>-6.211166858673096</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>-6.99355411529541</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>-6.822788238525391</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>-6.543346405029297</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>-7.281956672668457</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>-7.089177131652832</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>-6.85089111328125</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>-6.886459827423096</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>-6.579297542572021</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>-6.715105056762695</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>-6.391094207763672</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>-6.056876182556152</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>-5.951719760894775</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>-5.612847328186035</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>-5.616462230682373</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>-5.709753513336182</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>-5.754343032836914</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>-5.702723503112793</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>-5.999245166778564</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>-5.549386978149414</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>-5.758643627166748</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>-5.862118721008301</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>-5.162962436676025</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>-4.839288711547852</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>-5.37150764465332</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>-5.347959995269775</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>-5.399019718170166</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>-4.833311080932617</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>-5.117349147796631</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>-4.512201309204102</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>-5.113460540771484</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>-5.377808094024658</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>-5.113715171813965</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>-5.196681022644043</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>-5.180814743041992</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>-4.650890350341797</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>-4.806850433349609</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>-4.527260780334473</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>-4.46054744720459</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>-4.932289123535156</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>-4.639397144317627</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>-4.427449226379395</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>-4.385336399078369</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>-4.371842861175537</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>-4.368425369262695</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>-4.335001945495605</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>-4.54824161529541</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>-4.698754787445068</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>-4.667992115020752</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>-4.689566612243652</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>-4.698733329772949</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>-4.68690013885498</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>-4.432382583618164</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>-4.346035480499268</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>-4.332173347473145</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>-4.171708583831787</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>-4.154763698577881</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>-4.219198226928711</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>-4.469163417816162</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>-4.679084300994873</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>-4.982825756072998</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>-5.165689468383789</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>-4.991520404815674</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>-5.071393966674805</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>-4.431385040283203</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>-5.118985652923584</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>-4.665765762329102</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>-4.532577037811279</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>-4.801140308380127</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>-4.826083183288574</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>-4.309792995452881</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>-4.968890190124512</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>-4.651458263397217</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>-4.509537696838379</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>-4.128711223602295</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>-4.026910305023193</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>-3.456906080245972</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>-2.909542798995972</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>-2.472044229507446</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>-2.20837926864624</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>-1.614480495452881</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>-1.605689287185669</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>-1.824430584907532</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>-1.348805546760559</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>-1.229180335998535</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>-1.183988809585571</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>-1.283088803291321</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>-1.715197443962097</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>-1.250271797180176</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>-1.099600791931152</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>-1.304873824119568</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>-1.581139326095581</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>-1.396129012107849</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>-0.793989896774292</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>-1.201308846473694</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>-0.9559639096260071</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>-0.8340043425559998</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>-0.9039483666419983</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>-0.8517246842384338</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>-1.085217118263245</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>-0.9056191444396973</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>-0.9938308000564575</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>-1.019237518310547</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>-1.603026986122131</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>-1.800586223602295</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>-1.841222047805786</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>-1.446538686752319</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>-2.204285621643066</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>-1.735769510269165</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>-2.144348382949829</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>-2.713329792022705</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>-2.054239988327026</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>-2.296233415603638</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>-2.17495059967041</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>-1.853413105010986</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>-2.233939170837402</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>-1.586377263069153</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>-1.525972604751587</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>-1.918614149093628</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>-1.99408221244812</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>-2.046526193618774</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>-1.33953595161438</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>-1.273723721504211</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>-1.299293398857117</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>-1.152527332305908</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>-1.395006060600281</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>-1.211411476135254</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>-1.474478721618652</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>-1.562833309173584</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>-1.578085422515869</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>-1.703441143035889</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>-1.660563945770264</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>-1.134188532829285</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>-1.1514573097229</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>-1.362863302230835</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>-2.163073062896729</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>-1.7422776222229</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>-1.87229585647583</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>-1.490604877471924</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>-1.990745067596436</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>-1.361215472221375</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>-1.349693775177002</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>-1.204089164733887</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>-1.679524064064026</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>-1.985623002052307</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>-1.640164852142334</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>-1.498613238334656</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>-1.378686547279358</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>-1.250831246376038</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>-1.096783876419067</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>-1.454113125801086</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>-1.280701160430908</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>-1.278656005859375</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>-1.416866421699524</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>-1.264335632324219</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>-1.06291127204895</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>-0.7460862994194031</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>-0.9212095737457275</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>-1.034656643867493</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>-1.114773750305176</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>-0.8599054217338562</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>-0.9304063320159912</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>-1.044647097587585</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>-1.029176831245422</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>-0.8624029755592346</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>-0.6243270039558411</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>-0.6255016922950745</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>-0.8731275796890259</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>-0.9037203192710876</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>-0.6228403449058533</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>-0.5589931607246399</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>-0.9321630001068115</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>-0.5157822370529175</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>-0.7130181193351746</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>-0.8737539052963257</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>-1.211254358291626</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>-1.242321133613586</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>-1.471471667289734</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>-1.717146039009094</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>-1.340415596961975</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>-1.452027320861816</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>-1.265557169914246</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>-1.424811363220215</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>-1.128439545631409</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>-1.165055632591248</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>-1.160503625869751</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>-0.9328626394271851</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>-0.6302297711372375</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>-0.7700874209403992</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>-1.117109179496765</v>
       </c>
     </row>
   </sheetData>
